--- a/Realizado23-24.xlsx
+++ b/Realizado23-24.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9016" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9016" uniqueCount="1031">
   <si>
     <t>Extrato de Uso Sintético</t>
   </si>
@@ -2883,6 +2883,9 @@
   </si>
   <si>
     <t>SERVICO DE CHAVEIRO</t>
+  </si>
+  <si>
+    <t>Lenha</t>
   </si>
   <si>
     <t>SERVICO DE CORTE E TRANSPORTE DE LENHA</t>
@@ -4079,8 +4082,8 @@
   <sheetPr/>
   <dimension ref="A1:U714"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
@@ -39863,10 +39866,10 @@
         <v>1223</v>
       </c>
       <c r="I629" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J629" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K629" t="s">
         <v>892</v>
@@ -39878,7 +39881,7 @@
         <v>0</v>
       </c>
       <c r="O629" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="P629" t="s">
         <v>33</v>
@@ -39919,10 +39922,10 @@
         <v>33263</v>
       </c>
       <c r="I630" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J630" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K630" t="s">
         <v>892</v>
@@ -39931,13 +39934,13 @@
         <v>102</v>
       </c>
       <c r="M630" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="N630">
         <v>0</v>
       </c>
       <c r="O630" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="P630" t="s">
         <v>33</v>
@@ -39978,10 +39981,10 @@
         <v>33263</v>
       </c>
       <c r="I631" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J631" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K631" t="s">
         <v>892</v>
@@ -39990,7 +39993,7 @@
         <v>102</v>
       </c>
       <c r="M631" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N631">
         <v>0</v>
@@ -40037,10 +40040,10 @@
         <v>33263</v>
       </c>
       <c r="I632" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J632" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K632" t="s">
         <v>892</v>
@@ -40049,13 +40052,13 @@
         <v>102</v>
       </c>
       <c r="M632" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N632">
         <v>0</v>
       </c>
       <c r="O632" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P632" t="s">
         <v>33</v>
@@ -40096,10 +40099,10 @@
         <v>33263</v>
       </c>
       <c r="I633" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J633" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K633" t="s">
         <v>892</v>
@@ -40108,13 +40111,13 @@
         <v>102</v>
       </c>
       <c r="M633" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N633">
         <v>0</v>
       </c>
       <c r="O633" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="P633" t="s">
         <v>33</v>
@@ -40155,22 +40158,22 @@
         <v>33263</v>
       </c>
       <c r="I634" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J634" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K634" t="s">
         <v>892</v>
       </c>
       <c r="M634" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N634">
         <v>0</v>
       </c>
       <c r="O634" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="P634" t="s">
         <v>33</v>
@@ -40211,10 +40214,10 @@
         <v>33263</v>
       </c>
       <c r="I635" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="J635" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="K635" t="s">
         <v>892</v>
@@ -40226,7 +40229,7 @@
         <v>0</v>
       </c>
       <c r="O635" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P635" t="s">
         <v>33</v>
@@ -40270,13 +40273,13 @@
         <v>790</v>
       </c>
       <c r="J636" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="K636" t="s">
         <v>892</v>
       </c>
       <c r="M636" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -40326,7 +40329,7 @@
         <v>28</v>
       </c>
       <c r="J637" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K637" t="s">
         <v>892</v>
@@ -40373,13 +40376,13 @@
         <v>26</v>
       </c>
       <c r="G638" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I638" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J638" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K638" t="s">
         <v>892</v>
@@ -40429,13 +40432,13 @@
         <v>26</v>
       </c>
       <c r="G639" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I639" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J639" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K639" t="s">
         <v>892</v>
@@ -40485,13 +40488,13 @@
         <v>26</v>
       </c>
       <c r="G640" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I640" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J640" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K640" t="s">
         <v>892</v>
@@ -40500,7 +40503,7 @@
         <v>102</v>
       </c>
       <c r="M640" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N640">
         <v>0</v>
@@ -40541,13 +40544,13 @@
         <v>26</v>
       </c>
       <c r="G641" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I641" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J641" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K641" t="s">
         <v>892</v>
@@ -40597,13 +40600,13 @@
         <v>26</v>
       </c>
       <c r="G642" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I642" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J642" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K642" t="s">
         <v>892</v>
@@ -40612,7 +40615,7 @@
         <v>102</v>
       </c>
       <c r="M642" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N642">
         <v>0</v>
@@ -40653,13 +40656,13 @@
         <v>26</v>
       </c>
       <c r="G643" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I643" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J643" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K643" t="s">
         <v>892</v>
@@ -40668,7 +40671,7 @@
         <v>102</v>
       </c>
       <c r="M643" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N643">
         <v>0</v>
@@ -40709,13 +40712,13 @@
         <v>26</v>
       </c>
       <c r="G644" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I644" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J644" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K644" t="s">
         <v>892</v>
@@ -40724,7 +40727,7 @@
         <v>102</v>
       </c>
       <c r="M644" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N644">
         <v>0</v>
@@ -40765,13 +40768,13 @@
         <v>26</v>
       </c>
       <c r="G645" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I645" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J645" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K645" t="s">
         <v>892</v>
@@ -40780,7 +40783,7 @@
         <v>102</v>
       </c>
       <c r="M645" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N645">
         <v>0</v>
@@ -40821,13 +40824,13 @@
         <v>26</v>
       </c>
       <c r="G646" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I646" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J646" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K646" t="s">
         <v>892</v>
@@ -40877,13 +40880,13 @@
         <v>26</v>
       </c>
       <c r="G647" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I647" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J647" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K647" t="s">
         <v>892</v>
@@ -40892,7 +40895,7 @@
         <v>102</v>
       </c>
       <c r="M647" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -40933,13 +40936,13 @@
         <v>26</v>
       </c>
       <c r="G648" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I648" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J648" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K648" t="s">
         <v>892</v>
@@ -40948,7 +40951,7 @@
         <v>102</v>
       </c>
       <c r="M648" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N648">
         <v>0</v>
@@ -40989,13 +40992,13 @@
         <v>26</v>
       </c>
       <c r="G649" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I649" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J649" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K649" t="s">
         <v>892</v>
@@ -41045,13 +41048,13 @@
         <v>26</v>
       </c>
       <c r="G650" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I650" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J650" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K650" t="s">
         <v>892</v>
@@ -41060,7 +41063,7 @@
         <v>102</v>
       </c>
       <c r="M650" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N650">
         <v>0</v>
@@ -41101,13 +41104,13 @@
         <v>26</v>
       </c>
       <c r="G651" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I651" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J651" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K651" t="s">
         <v>892</v>
@@ -41116,7 +41119,7 @@
         <v>102</v>
       </c>
       <c r="M651" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N651">
         <v>0</v>
@@ -41157,13 +41160,13 @@
         <v>26</v>
       </c>
       <c r="G652" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I652" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J652" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K652" t="s">
         <v>892</v>
@@ -41213,13 +41216,13 @@
         <v>26</v>
       </c>
       <c r="G653" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I653" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J653" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K653" t="s">
         <v>892</v>
@@ -41269,13 +41272,13 @@
         <v>26</v>
       </c>
       <c r="G654" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I654" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J654" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K654" t="s">
         <v>892</v>
@@ -41325,13 +41328,13 @@
         <v>26</v>
       </c>
       <c r="G655" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I655" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J655" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K655" t="s">
         <v>892</v>
@@ -41340,7 +41343,7 @@
         <v>102</v>
       </c>
       <c r="M655" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -41381,13 +41384,13 @@
         <v>26</v>
       </c>
       <c r="G656" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I656" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J656" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K656" t="s">
         <v>892</v>
@@ -41437,13 +41440,13 @@
         <v>26</v>
       </c>
       <c r="G657" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I657" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J657" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K657" t="s">
         <v>892</v>
@@ -41493,13 +41496,13 @@
         <v>26</v>
       </c>
       <c r="G658" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I658" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J658" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K658" t="s">
         <v>892</v>
@@ -41549,7 +41552,7 @@
         <v>26</v>
       </c>
       <c r="G659" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H659">
         <v>1001</v>
@@ -41558,13 +41561,13 @@
         <v>28</v>
       </c>
       <c r="J659" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K659" t="s">
         <v>892</v>
       </c>
       <c r="M659" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -41605,7 +41608,7 @@
         <v>26</v>
       </c>
       <c r="G660" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H660">
         <v>1001</v>
@@ -41614,13 +41617,13 @@
         <v>28</v>
       </c>
       <c r="J660" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K660" t="s">
         <v>892</v>
       </c>
       <c r="M660" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N660">
         <v>0</v>
@@ -41661,7 +41664,7 @@
         <v>26</v>
       </c>
       <c r="G661" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H661">
         <v>1001</v>
@@ -41670,7 +41673,7 @@
         <v>28</v>
       </c>
       <c r="J661" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K661" t="s">
         <v>892</v>
@@ -41717,7 +41720,7 @@
         <v>26</v>
       </c>
       <c r="G662" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H662">
         <v>1001</v>
@@ -41726,13 +41729,13 @@
         <v>28</v>
       </c>
       <c r="J662" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K662" t="s">
         <v>892</v>
       </c>
       <c r="M662" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -41773,7 +41776,7 @@
         <v>26</v>
       </c>
       <c r="G663" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H663">
         <v>1001</v>
@@ -41782,7 +41785,7 @@
         <v>28</v>
       </c>
       <c r="J663" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K663" t="s">
         <v>892</v>
@@ -41829,7 +41832,7 @@
         <v>26</v>
       </c>
       <c r="G664" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H664">
         <v>1001</v>
@@ -41838,13 +41841,13 @@
         <v>28</v>
       </c>
       <c r="J664" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K664" t="s">
         <v>892</v>
       </c>
       <c r="M664" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N664">
         <v>0</v>
@@ -41894,7 +41897,7 @@
         <v>28</v>
       </c>
       <c r="J665" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="K665" t="s">
         <v>892</v>
@@ -41950,7 +41953,7 @@
         <v>203</v>
       </c>
       <c r="J666" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="K666" t="s">
         <v>892</v>
@@ -42006,13 +42009,13 @@
         <v>203</v>
       </c>
       <c r="J667" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="K667" t="s">
         <v>892</v>
       </c>
       <c r="M667" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N667">
         <v>0</v>
@@ -42059,10 +42062,10 @@
         <v>2587</v>
       </c>
       <c r="I668" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J668" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K668" t="s">
         <v>892</v>
@@ -42118,7 +42121,7 @@
         <v>244</v>
       </c>
       <c r="J669" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K669" t="s">
         <v>892</v>
@@ -42174,13 +42177,13 @@
         <v>203</v>
       </c>
       <c r="J670" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K670" t="s">
         <v>892</v>
       </c>
       <c r="M670" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N670">
         <v>0</v>
@@ -42230,7 +42233,7 @@
         <v>134</v>
       </c>
       <c r="J671" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K671" t="s">
         <v>892</v>
@@ -42286,7 +42289,7 @@
         <v>28</v>
       </c>
       <c r="J672" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="K672" t="s">
         <v>892</v>
@@ -42336,13 +42339,13 @@
         <v>28424</v>
       </c>
       <c r="H673" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I673" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J673" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K673" t="s">
         <v>892</v>
@@ -42392,13 +42395,13 @@
         <v>28424</v>
       </c>
       <c r="H674" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I674" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J674" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K674" t="s">
         <v>892</v>
@@ -42448,13 +42451,13 @@
         <v>1498</v>
       </c>
       <c r="H675" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I675" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J675" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="K675" t="s">
         <v>892</v>
@@ -42504,13 +42507,13 @@
         <v>1498</v>
       </c>
       <c r="H676" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I676" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J676" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="K676" t="s">
         <v>892</v>
@@ -42560,19 +42563,19 @@
         <v>1498</v>
       </c>
       <c r="H677" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I677" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J677" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="K677" t="s">
         <v>892</v>
       </c>
       <c r="M677" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -42616,25 +42619,25 @@
         <v>1498</v>
       </c>
       <c r="H678" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I678" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J678" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="K678" t="s">
         <v>892</v>
       </c>
       <c r="M678" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N678">
         <v>0</v>
       </c>
       <c r="O678" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P678" t="s">
         <v>33</v>
@@ -42678,13 +42681,13 @@
         <v>28</v>
       </c>
       <c r="J679" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K679" t="s">
         <v>892</v>
       </c>
       <c r="M679" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N679">
         <v>0</v>
@@ -42734,13 +42737,13 @@
         <v>28</v>
       </c>
       <c r="J680" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K680" t="s">
         <v>892</v>
       </c>
       <c r="M680" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N680">
         <v>0</v>
@@ -42790,7 +42793,7 @@
         <v>28</v>
       </c>
       <c r="J681" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="K681" t="s">
         <v>892</v>
@@ -42846,7 +42849,7 @@
         <v>28</v>
       </c>
       <c r="J682" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="K682" t="s">
         <v>892</v>
@@ -42902,7 +42905,7 @@
         <v>28</v>
       </c>
       <c r="J683" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="K683" t="s">
         <v>892</v>
@@ -42958,13 +42961,13 @@
         <v>28</v>
       </c>
       <c r="J684" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K684" t="s">
         <v>892</v>
       </c>
       <c r="M684" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -43014,7 +43017,7 @@
         <v>28</v>
       </c>
       <c r="J685" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K685" t="s">
         <v>892</v>
@@ -43026,7 +43029,7 @@
         <v>0</v>
       </c>
       <c r="O685" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P685" t="s">
         <v>33</v>
@@ -43070,7 +43073,7 @@
         <v>28</v>
       </c>
       <c r="J686" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K686" t="s">
         <v>892</v>
@@ -43082,7 +43085,7 @@
         <v>0</v>
       </c>
       <c r="O686" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P686" t="s">
         <v>33</v>
@@ -43126,7 +43129,7 @@
         <v>28</v>
       </c>
       <c r="J687" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K687" t="s">
         <v>892</v>
@@ -43138,7 +43141,7 @@
         <v>0</v>
       </c>
       <c r="O687" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P687" t="s">
         <v>33</v>
@@ -43176,13 +43179,13 @@
         <v>19823</v>
       </c>
       <c r="H688" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="I688" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J688" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="K688" t="s">
         <v>892</v>
@@ -43194,7 +43197,7 @@
         <v>0</v>
       </c>
       <c r="O688" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P688" t="s">
         <v>33</v>
@@ -43235,7 +43238,7 @@
         <v>5</v>
       </c>
       <c r="J689" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K689" t="s">
         <v>892</v>
@@ -43288,10 +43291,10 @@
         <v>5</v>
       </c>
       <c r="I690" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J690" t="s">
         <v>1011</v>
-      </c>
-      <c r="J690" t="s">
-        <v>1010</v>
       </c>
       <c r="K690" t="s">
         <v>892</v>
@@ -43347,7 +43350,7 @@
         <v>85</v>
       </c>
       <c r="J691" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K691" t="s">
         <v>892</v>
@@ -43400,10 +43403,10 @@
         <v>5</v>
       </c>
       <c r="I692" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="J692" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K692" t="s">
         <v>892</v>
@@ -43456,10 +43459,10 @@
         <v>5</v>
       </c>
       <c r="I693" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="J693" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K693" t="s">
         <v>892</v>
@@ -43515,7 +43518,7 @@
         <v>203</v>
       </c>
       <c r="J694" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K694" t="s">
         <v>892</v>
@@ -43568,10 +43571,10 @@
         <v>5</v>
       </c>
       <c r="I695" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="J695" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K695" t="s">
         <v>892</v>
@@ -43627,7 +43630,7 @@
         <v>88</v>
       </c>
       <c r="J696" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K696" t="s">
         <v>892</v>
@@ -43683,7 +43686,7 @@
         <v>88</v>
       </c>
       <c r="J697" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K697" t="s">
         <v>892</v>
@@ -43739,7 +43742,7 @@
         <v>85</v>
       </c>
       <c r="J698" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K698" t="s">
         <v>892</v>
@@ -43795,7 +43798,7 @@
         <v>141</v>
       </c>
       <c r="J699" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K699" t="s">
         <v>892</v>
@@ -43851,13 +43854,13 @@
         <v>203</v>
       </c>
       <c r="J700" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K700" t="s">
         <v>892</v>
       </c>
       <c r="M700" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N700">
         <v>0</v>
@@ -43907,13 +43910,13 @@
         <v>203</v>
       </c>
       <c r="J701" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K701" t="s">
         <v>892</v>
       </c>
       <c r="M701" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N701">
         <v>0</v>
@@ -43963,13 +43966,13 @@
         <v>28</v>
       </c>
       <c r="J702" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="K702" t="s">
         <v>892</v>
       </c>
       <c r="M702" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N702">
         <v>0</v>
@@ -44019,13 +44022,13 @@
         <v>28</v>
       </c>
       <c r="J703" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="K703" t="s">
         <v>892</v>
       </c>
       <c r="M703" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N703">
         <v>0</v>
@@ -44075,7 +44078,7 @@
         <v>28</v>
       </c>
       <c r="J704" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="K704" t="s">
         <v>892</v>
@@ -44125,19 +44128,19 @@
         <v>9652</v>
       </c>
       <c r="H705" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I705" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J705" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="K705" t="s">
         <v>892</v>
       </c>
       <c r="M705" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N705">
         <v>0</v>
@@ -44181,19 +44184,19 @@
         <v>9652</v>
       </c>
       <c r="H706" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I706" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J706" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="K706" t="s">
         <v>892</v>
       </c>
       <c r="M706" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N706">
         <v>0</v>
@@ -44237,13 +44240,13 @@
         <v>9652</v>
       </c>
       <c r="H707" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I707" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J707" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="K707" t="s">
         <v>892</v>
@@ -44299,7 +44302,7 @@
         <v>28</v>
       </c>
       <c r="J708" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="K708" t="s">
         <v>892</v>
@@ -44355,7 +44358,7 @@
         <v>85</v>
       </c>
       <c r="J709" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K709" t="s">
         <v>892</v>
@@ -44411,7 +44414,7 @@
         <v>85</v>
       </c>
       <c r="J710" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K710" t="s">
         <v>892</v>
@@ -44467,7 +44470,7 @@
         <v>88</v>
       </c>
       <c r="J711" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K711" t="s">
         <v>892</v>
@@ -44523,7 +44526,7 @@
         <v>822</v>
       </c>
       <c r="J712" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K712" t="s">
         <v>892</v>
@@ -44576,10 +44579,10 @@
         <v>1133</v>
       </c>
       <c r="I713" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J713" t="s">
         <v>1027</v>
-      </c>
-      <c r="J713" t="s">
-        <v>1026</v>
       </c>
       <c r="K713" t="s">
         <v>892</v>
@@ -44629,13 +44632,13 @@
         <v>29862</v>
       </c>
       <c r="H714" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="I714" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J714" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="K714" t="s">
         <v>892</v>
